--- a/data/03 output/03 tables/descriptive_statistics.xlsx
+++ b/data/03 output/03 tables/descriptive_statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b56c13e46b6a80f/Documents/GitHub/reverse_eu_pol/data/03 output/03 tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{37127E9D-A612-4E3E-BF4D-FB76E1A37FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438D5926-E0D4-4374-962A-5241A67D557F}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{37127E9D-A612-4E3E-BF4D-FB76E1A37FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D0A38F-DFBD-4BD8-B5B7-D9936DE6C188}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{7351D399-BC05-4987-80C4-C703795BC285}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -440,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -459,13 +459,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99263,13 +99259,13 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>1381</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>1320</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>2701</v>
       </c>
     </row>
@@ -99277,13 +99273,13 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>2282</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2560</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>4842</v>
       </c>
     </row>
@@ -99291,13 +99287,13 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>3663</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>3880</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5">
         <v>7543</v>
       </c>
     </row>
@@ -99310,8 +99306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EECB97-A5F5-430B-8344-02467758674C}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:N8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -99341,28 +99337,24 @@
       <c r="D2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>1218</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1293</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2511</v>
       </c>
       <c r="I3" t="s">
@@ -99388,39 +99380,39 @@
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>717</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>693</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>1410</v>
       </c>
       <c r="H4" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <f>AVERAGE($B$3:$B$7)</f>
         <v>732.6</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="10">
         <f>_xlfn.STDEV.P($B$3:$B$7)</f>
         <v>373.78368075666435</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <f>SUM($B$3:$B$7)</f>
         <v>3663</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <f>AVERAGE($C$3:$C$7)</f>
         <v>776</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="10">
         <f>_xlfn.STDEV.P($C$3:$C$7)</f>
         <v>399.70288965680493</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="11">
         <f>SUM($C$3:$C$7)</f>
         <v>3880</v>
       </c>
@@ -99429,39 +99421,39 @@
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>540</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>639</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1179</v>
       </c>
       <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <f>AVERAGE($B$12:$B$49)</f>
         <v>96.39473684210526</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <f>_xlfn.STDEV.P($B$12:$B$49)</f>
         <v>61.342240736827982</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <f>SUM($B$12:$B$49)</f>
         <v>3663</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <f>AVERAGE($C$12:$C$49)</f>
         <v>102.10526315789474</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="10">
         <f>_xlfn.STDEV.P($C$12:$C$49)</f>
         <v>51.372627092688496</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="11">
         <f>SUM($C$12:$C$49)</f>
         <v>3880</v>
       </c>
@@ -99470,39 +99462,39 @@
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>154</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>147</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>301</v>
       </c>
       <c r="H6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <f>AVERAGE($B$54:$B$90)</f>
         <v>99</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <f>_xlfn.STDEV.P($B$54:$B$90)</f>
         <v>65.158849557643933</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <f>SUM($B$54:$B$90)</f>
         <v>3663</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <f>AVERAGE($C$54:$C$90)</f>
         <v>104.86486486486487</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="10">
         <f>_xlfn.STDEV.P($C$54:$C$90)</f>
         <v>66.922772014994479</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="11">
         <f>SUM($C$54:$C$90)</f>
         <v>3880</v>
       </c>
@@ -99511,39 +99503,39 @@
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1034</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1108</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2142</v>
       </c>
       <c r="H7" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <f>AVERAGE($B$95:$B$121)</f>
         <v>135.66666666666666</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <f>_xlfn.STDEV.P($B$95:$B$121)</f>
         <v>65.882049485762394</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <f>SUM($B$95:$B$121)</f>
         <v>3663</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <f>AVERAGE($C$95:$C$121)</f>
         <v>143.7037037037037</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="10">
         <f>_xlfn.STDEV.P($C$95:$C$121)</f>
         <v>78.679290331213082</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="11">
         <f>SUM($C$95:$C$121)</f>
         <v>3880</v>
       </c>
@@ -99552,39 +99544,39 @@
       <c r="A8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>3663</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>3880</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>7543</v>
       </c>
       <c r="H8" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <f>AVERAGE($B$125:$B$126)</f>
         <v>1831.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <f>_xlfn.STDEV.P($B$125:$B$126)</f>
         <v>450.5</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <f>SUM($B$125:$B$126)</f>
         <v>3663</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="10">
         <f>AVERAGE($C$125:$C$126)</f>
         <v>1940</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="10">
         <f>_xlfn.STDEV.P($C$125:$C$126)</f>
         <v>620</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="11">
         <f>SUM($C$125:$C$126)</f>
         <v>3880</v>
       </c>
@@ -101134,13 +101126,13 @@
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125">
         <v>1381</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125">
         <v>1320</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125">
         <v>2701</v>
       </c>
     </row>
@@ -101148,13 +101140,13 @@
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126">
         <v>2282</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126">
         <v>2560</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126">
         <v>4842</v>
       </c>
     </row>
@@ -101162,13 +101154,13 @@
       <c r="A127" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="11">
+      <c r="B127" s="5">
         <v>3663</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="5">
         <v>3880</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="5">
         <v>7543</v>
       </c>
     </row>
